--- a/Exam/journals.xlsx
+++ b/Exam/journals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
   <si>
     <t>Журнал</t>
   </si>
@@ -356,6 +356,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>International Journal of Advanced Manufacturing Technology</t>
+  </si>
+  <si>
+    <t>European Journal of Operational Research</t>
+  </si>
+  <si>
+    <t>Key Engineering Materials</t>
+  </si>
+  <si>
+    <t>0268-3768</t>
+  </si>
+  <si>
+    <t>0377-2217</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03772217</t>
+  </si>
+  <si>
+    <t>1013-9826</t>
   </si>
 </sst>
 </file>
@@ -1256,12 +1277,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="615" topLeftCell="A16" activePane="bottomLeft"/>
+      <selection activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,10 +1397,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1388,10 +1406,10 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>113</v>
@@ -1411,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1419,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
@@ -1431,91 +1449,64 @@
         <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
+      <c r="B8" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>0.188</v>
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0.314</v>
+      <c r="B9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>0.186</v>
+      <c r="B10" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
         <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1523,13 +1514,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="E11">
-        <v>0.58499999999999996</v>
+        <v>0.188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1538,10 +1532,10 @@
         <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1549,13 +1543,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.13700000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1567,10 +1558,10 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1578,13 +1569,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="E13">
-        <v>0.22</v>
+        <v>0.186</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1596,10 +1587,10 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1607,16 +1598,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="E14">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1624,8 +1612,11 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,13 +1624,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="E15">
-        <v>0.38700000000000001</v>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1648,10 +1642,10 @@
         <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1659,13 +1653,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="E16">
-        <v>0.23200000000000001</v>
+        <v>0.22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1674,10 +1671,10 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,13 +1682,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="E17">
-        <v>0.66700000000000004</v>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1699,11 +1699,8 @@
       <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1711,13 +1708,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="E18">
-        <v>0.20799999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -1726,10 +1723,10 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1737,13 +1734,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="E19">
-        <v>0.191</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1752,10 +1749,10 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1763,13 +1760,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="E20">
-        <v>0.15</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1778,10 +1775,10 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1789,13 +1786,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="E21">
-        <v>0.18</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -1804,10 +1801,10 @@
         <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1815,11 +1812,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
+      <c r="E22">
+        <v>0.191</v>
+      </c>
       <c r="G22" t="s">
         <v>33</v>
       </c>
@@ -1827,10 +1827,10 @@
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>113</v>
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>0.15</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -1853,10 +1853,10 @@
         <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1864,13 +1864,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="E24">
-        <v>8.3000000000000004E-2</v>
+        <v>0.18</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -1879,10 +1879,10 @@
         <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1890,14 +1890,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="E25">
-        <v>0.38900000000000001</v>
-      </c>
       <c r="G25" t="s">
         <v>33</v>
       </c>
@@ -1905,10 +1902,10 @@
         <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1916,13 +1913,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0.23</v>
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -1931,10 +1928,10 @@
         <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1942,13 +1939,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="E27">
-        <v>0.125</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -1957,10 +1954,10 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,13 +1965,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="E28">
-        <v>0.19400000000000001</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1983,10 +1980,10 @@
         <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1994,13 +1991,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="E29">
-        <v>0.308</v>
+        <v>0.23</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -2009,10 +2006,10 @@
         <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2020,13 +2017,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="E30">
-        <v>0.27900000000000003</v>
+        <v>0.125</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -2035,10 +2032,10 @@
         <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,13 +2043,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="E31">
-        <v>0.151</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -2061,10 +2058,10 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2072,13 +2069,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="E32">
-        <v>0.317</v>
+        <v>0.308</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -2087,10 +2084,10 @@
         <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,13 +2095,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
       </c>
       <c r="E33">
-        <v>0.14899999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -2113,10 +2110,10 @@
         <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2124,13 +2121,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
       <c r="E34">
-        <v>0.70699999999999996</v>
+        <v>0.151</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -2139,10 +2136,10 @@
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2150,13 +2147,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="E35">
-        <v>0.82399999999999995</v>
+        <v>0.317</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -2165,10 +2162,10 @@
         <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2176,64 +2173,143 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>0.186</v>
       </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J37">
-    <sortCondition ref="B4"/>
+  <sortState ref="A2:J39">
+    <sortCondition ref="B9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" display="http://www.avtprom.ru/"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3" display="http://vestnik.tu-bryansk.ru/"/>
-    <hyperlink ref="J12" r:id="rId4"/>
-    <hyperlink ref="J13" r:id="rId5"/>
-    <hyperlink ref="J14" r:id="rId6"/>
-    <hyperlink ref="J15" r:id="rId7" display="http://www.vkit.ru/"/>
-    <hyperlink ref="J16" r:id="rId8" display="http://vestnikmgsu.ru/"/>
-    <hyperlink ref="J17" r:id="rId9" display="http://vestnik.ngiei.ru/"/>
-    <hyperlink ref="J19" r:id="rId10"/>
-    <hyperlink ref="J18" r:id="rId11" display="http://www.vestnik.sibsau.ru/"/>
-    <hyperlink ref="J20" r:id="rId12"/>
-    <hyperlink ref="J21" r:id="rId13" display="http://www.etn.sc-site.ru/"/>
-    <hyperlink ref="J22" r:id="rId14"/>
-    <hyperlink ref="J23" r:id="rId15"/>
-    <hyperlink ref="J24" r:id="rId16"/>
-    <hyperlink ref="J25" r:id="rId17"/>
-    <hyperlink ref="J26" r:id="rId18" display="http://izv-tn.tti.sfedu.ru/"/>
-    <hyperlink ref="J29" r:id="rId19" location="bio" display="http://www.polytechnics.ru/magazin/index.html - bio"/>
-    <hyperlink ref="J33" r:id="rId20" display="http://pma-ntp.ru/"/>
-    <hyperlink ref="J34" r:id="rId21"/>
-    <hyperlink ref="J35" r:id="rId22"/>
-    <hyperlink ref="J11" r:id="rId23"/>
-    <hyperlink ref="J27" r:id="rId24"/>
-    <hyperlink ref="J28" r:id="rId25" display="http://sfipi.ru/"/>
-    <hyperlink ref="J31" r:id="rId26" display="http://vestnik.omgtu.ru/"/>
-    <hyperlink ref="J36" r:id="rId27"/>
-    <hyperlink ref="J30" r:id="rId28" display="http://globaljournals.ru/"/>
-    <hyperlink ref="J32" r:id="rId29" display="http://moofrnk.com/"/>
+    <hyperlink ref="J11" r:id="rId1" display="http://www.avtprom.ru/"/>
+    <hyperlink ref="J12" r:id="rId2"/>
+    <hyperlink ref="J13" r:id="rId3" display="http://vestnik.tu-bryansk.ru/"/>
+    <hyperlink ref="J15" r:id="rId4"/>
+    <hyperlink ref="J16" r:id="rId5"/>
+    <hyperlink ref="J17" r:id="rId6"/>
+    <hyperlink ref="J18" r:id="rId7" display="http://www.vkit.ru/"/>
+    <hyperlink ref="J19" r:id="rId8" display="http://vestnikmgsu.ru/"/>
+    <hyperlink ref="J20" r:id="rId9" display="http://vestnik.ngiei.ru/"/>
+    <hyperlink ref="J22" r:id="rId10"/>
+    <hyperlink ref="J21" r:id="rId11" display="http://www.vestnik.sibsau.ru/"/>
+    <hyperlink ref="J23" r:id="rId12"/>
+    <hyperlink ref="J24" r:id="rId13" display="http://www.etn.sc-site.ru/"/>
+    <hyperlink ref="J25" r:id="rId14"/>
+    <hyperlink ref="J26" r:id="rId15"/>
+    <hyperlink ref="J27" r:id="rId16"/>
+    <hyperlink ref="J28" r:id="rId17"/>
+    <hyperlink ref="J29" r:id="rId18" display="http://izv-tn.tti.sfedu.ru/"/>
+    <hyperlink ref="J32" r:id="rId19" location="bio" display="http://www.polytechnics.ru/magazin/index.html - bio"/>
+    <hyperlink ref="J36" r:id="rId20" display="http://pma-ntp.ru/"/>
+    <hyperlink ref="J37" r:id="rId21"/>
+    <hyperlink ref="J38" r:id="rId22"/>
+    <hyperlink ref="J14" r:id="rId23"/>
+    <hyperlink ref="J30" r:id="rId24"/>
+    <hyperlink ref="J31" r:id="rId25" display="http://sfipi.ru/"/>
+    <hyperlink ref="J34" r:id="rId26" display="http://vestnik.omgtu.ru/"/>
+    <hyperlink ref="J39" r:id="rId27"/>
+    <hyperlink ref="J33" r:id="rId28" display="http://globaljournals.ru/"/>
+    <hyperlink ref="J35" r:id="rId29" display="http://moofrnk.com/"/>
     <hyperlink ref="J4" r:id="rId30"/>
     <hyperlink ref="J2" r:id="rId31"/>
-    <hyperlink ref="J5" r:id="rId32"/>
+    <hyperlink ref="J7" r:id="rId32"/>
     <hyperlink ref="J3" r:id="rId33"/>
+    <hyperlink ref="J5" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Exam/journals.xlsx
+++ b/Exam/journals.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24780" windowHeight="12150"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="24780" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="journals" sheetId="1" r:id="rId1"/>
+    <sheet name="ruJ" sheetId="1" r:id="rId1"/>
+    <sheet name="intJ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <t>Журнал</t>
   </si>
@@ -106,21 +107,12 @@
     <t>Рец.</t>
   </si>
   <si>
-    <t>JCR</t>
-  </si>
-  <si>
     <t>РИНЦ</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>Scopus</t>
-  </si>
-  <si>
     <t>ВАК</t>
   </si>
   <si>
@@ -310,27 +302,18 @@
     <t>0305-0548</t>
   </si>
   <si>
-    <t>http://www.sciencedirect.com/science/journal/03050548</t>
-  </si>
-  <si>
     <t>Computer Methods in Applied Mechanics and Engineering</t>
   </si>
   <si>
     <t>0045-7825</t>
   </si>
   <si>
-    <t>http://www.sciencedirect.com/science/journal/00457825</t>
-  </si>
-  <si>
     <t>International Journal of Machine Tools and Manufacture</t>
   </si>
   <si>
     <t>0890-6955</t>
   </si>
   <si>
-    <t>http://www.sciencedirect.com/science/journal/08906955</t>
-  </si>
-  <si>
     <t>Journal of Manufacturing Systems</t>
   </si>
   <si>
@@ -343,9 +326,6 @@
     <t>0360-8352</t>
   </si>
   <si>
-    <t>http://www.sciencedirect.com/science/journal/03608352</t>
-  </si>
-  <si>
     <t>International Journal of Production Research</t>
   </si>
   <si>
@@ -373,10 +353,25 @@
     <t>0377-2217</t>
   </si>
   <si>
-    <t>http://www.sciencedirect.com/science/journal/03772217</t>
-  </si>
-  <si>
     <t>1013-9826</t>
+  </si>
+  <si>
+    <t>Annals of Operations Research</t>
+  </si>
+  <si>
+    <t>0254-5330</t>
+  </si>
+  <si>
+    <t>Journal of Intelligent Manufacturing</t>
+  </si>
+  <si>
+    <t>0956-5515</t>
+  </si>
+  <si>
+    <t>Journal of Mathematical Modelling and Algorithms in Operations Research</t>
+  </si>
+  <si>
+    <t>2214-2487</t>
   </si>
 </sst>
 </file>
@@ -728,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -844,28 +839,202 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -917,23 +1086,63 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1277,1039 +1486,998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="D36" sqref="D36"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="615" activePane="bottomLeft"/>
+      <selection sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.188</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.186</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H6" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.308</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.317</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>0.188</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0.314</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
+      <c r="B30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="9">
         <v>0.186</v>
       </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>0.22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>0.191</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>0.15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24">
-        <v>0.18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29">
-        <v>0.23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30">
-        <v>0.125</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>84</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="E30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32">
-        <v>0.308</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" t="s">
-        <v>74</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <v>0.151</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H30" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <v>0.317</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" t="s">
-        <v>76</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39">
-        <v>0.186</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:J39">
     <sortCondition ref="B9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1" display="http://www.avtprom.ru/"/>
-    <hyperlink ref="J12" r:id="rId2"/>
-    <hyperlink ref="J13" r:id="rId3" display="http://vestnik.tu-bryansk.ru/"/>
-    <hyperlink ref="J15" r:id="rId4"/>
-    <hyperlink ref="J16" r:id="rId5"/>
-    <hyperlink ref="J17" r:id="rId6"/>
-    <hyperlink ref="J18" r:id="rId7" display="http://www.vkit.ru/"/>
-    <hyperlink ref="J19" r:id="rId8" display="http://vestnikmgsu.ru/"/>
-    <hyperlink ref="J20" r:id="rId9" display="http://vestnik.ngiei.ru/"/>
-    <hyperlink ref="J22" r:id="rId10"/>
-    <hyperlink ref="J21" r:id="rId11" display="http://www.vestnik.sibsau.ru/"/>
-    <hyperlink ref="J23" r:id="rId12"/>
-    <hyperlink ref="J24" r:id="rId13" display="http://www.etn.sc-site.ru/"/>
-    <hyperlink ref="J25" r:id="rId14"/>
-    <hyperlink ref="J26" r:id="rId15"/>
-    <hyperlink ref="J27" r:id="rId16"/>
-    <hyperlink ref="J28" r:id="rId17"/>
-    <hyperlink ref="J29" r:id="rId18" display="http://izv-tn.tti.sfedu.ru/"/>
-    <hyperlink ref="J32" r:id="rId19" location="bio" display="http://www.polytechnics.ru/magazin/index.html - bio"/>
-    <hyperlink ref="J36" r:id="rId20" display="http://pma-ntp.ru/"/>
-    <hyperlink ref="J37" r:id="rId21"/>
-    <hyperlink ref="J38" r:id="rId22"/>
-    <hyperlink ref="J14" r:id="rId23"/>
-    <hyperlink ref="J30" r:id="rId24"/>
-    <hyperlink ref="J31" r:id="rId25" display="http://sfipi.ru/"/>
-    <hyperlink ref="J34" r:id="rId26" display="http://vestnik.omgtu.ru/"/>
-    <hyperlink ref="J39" r:id="rId27"/>
-    <hyperlink ref="J33" r:id="rId28" display="http://globaljournals.ru/"/>
-    <hyperlink ref="J35" r:id="rId29" display="http://moofrnk.com/"/>
-    <hyperlink ref="J4" r:id="rId30"/>
-    <hyperlink ref="J2" r:id="rId31"/>
-    <hyperlink ref="J7" r:id="rId32"/>
-    <hyperlink ref="J3" r:id="rId33"/>
-    <hyperlink ref="J5" r:id="rId34"/>
+    <hyperlink ref="H2" r:id="rId1" display="http://www.avtprom.ru/"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3" display="http://vestnik.tu-bryansk.ru/"/>
+    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="H7" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="H9" r:id="rId7" display="http://www.vkit.ru/"/>
+    <hyperlink ref="H10" r:id="rId8" display="http://vestnikmgsu.ru/"/>
+    <hyperlink ref="H11" r:id="rId9" display="http://vestnik.ngiei.ru/"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11" display="http://www.vestnik.sibsau.ru/"/>
+    <hyperlink ref="H14" r:id="rId12"/>
+    <hyperlink ref="H15" r:id="rId13" display="http://www.etn.sc-site.ru/"/>
+    <hyperlink ref="H16" r:id="rId14"/>
+    <hyperlink ref="H17" r:id="rId15"/>
+    <hyperlink ref="H18" r:id="rId16"/>
+    <hyperlink ref="H19" r:id="rId17"/>
+    <hyperlink ref="H20" r:id="rId18" display="http://izv-tn.tti.sfedu.ru/"/>
+    <hyperlink ref="H23" r:id="rId19" location="bio" display="http://www.polytechnics.ru/magazin/index.html - bio"/>
+    <hyperlink ref="H27" r:id="rId20" display="http://pma-ntp.ru/"/>
+    <hyperlink ref="H28" r:id="rId21"/>
+    <hyperlink ref="H29" r:id="rId22"/>
+    <hyperlink ref="H5" r:id="rId23"/>
+    <hyperlink ref="H21" r:id="rId24"/>
+    <hyperlink ref="H22" r:id="rId25" display="http://sfipi.ru/"/>
+    <hyperlink ref="H25" r:id="rId26" display="http://vestnik.omgtu.ru/"/>
+    <hyperlink ref="H30" r:id="rId27"/>
+    <hyperlink ref="H24" r:id="rId28" display="http://globaljournals.ru/"/>
+    <hyperlink ref="H26" r:id="rId29" display="http://moofrnk.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <pane ySplit="615" activePane="bottomLeft"/>
+      <selection activeCell="C148" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="68.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState ref="A2:C13">
+    <sortCondition ref="B4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Exam/journals.xlsx
+++ b/Exam/journals.xlsx
@@ -10,12 +10,12 @@
     <sheet name="ruJ" sheetId="1" r:id="rId1"/>
     <sheet name="intJ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
   <si>
     <t>Журнал</t>
   </si>
@@ -372,13 +372,22 @@
   </si>
   <si>
     <t>2214-2487</t>
+  </si>
+  <si>
+    <t>SNIP</t>
+  </si>
+  <si>
+    <t>IPP</t>
+  </si>
+  <si>
+    <t>SJR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +550,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -723,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1035,7 +1050,37 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1086,7 +1131,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1132,17 +1177,26 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1489,9 +1543,9 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="615" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A7" activePane="bottomLeft"/>
       <selection sqref="A1:H1"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,12 +2370,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="C148" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,150 +2383,263 @@
     <col min="2" max="2" width="68.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="D1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="29">
+        <v>1.123</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1.18</v>
+      </c>
+      <c r="F2" s="30">
+        <v>1.1859999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="29">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="E3" s="29">
+        <v>3.67</v>
+      </c>
+      <c r="F3" s="30">
+        <v>2.952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="29">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="E4" s="29">
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="29">
+        <v>1.95</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2.2370000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="29">
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="E6" s="29">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="F6" s="30">
+        <v>2.5950000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="29">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1.59</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="29">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="E8" s="29">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2.746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="29">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="29">
+        <v>1.643</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1.397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="29">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="E11" s="29">
+        <v>2.758</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D13" s="33">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0.182</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="24"/>
+    </row>
   </sheetData>
   <sortState ref="A2:C13">
     <sortCondition ref="B4"/>

--- a/Exam/journals.xlsx
+++ b/Exam/journals.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24780" windowHeight="12150" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="24780" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="ruJ" sheetId="1" r:id="rId1"/>
     <sheet name="intJ" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
   <si>
     <t>Журнал</t>
   </si>
@@ -381,13 +382,194 @@
   </si>
   <si>
     <t>SJR</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Вестник Сибирского государственного аэрокосмического университета им. академика М.Ф. Решетнева</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Вестник Уфимского государственного авиационного технического университета</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Вестник Южно-Уральского государственного университета. Серия: Компьютерные технологии, управление, радиоэлектроника</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>Международное научное издание Современные фундаментальные и прикладные исследования</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>SC. IDX</t>
+  </si>
+  <si>
+    <t>3,3  </t>
+  </si>
+  <si>
+    <t>5,9  </t>
+  </si>
+  <si>
+    <t>7,2  </t>
+  </si>
+  <si>
+    <t>7,9  </t>
+  </si>
+  <si>
+    <t>8,3  </t>
+  </si>
+  <si>
+    <t>7,8  </t>
+  </si>
+  <si>
+    <t>6,3  </t>
+  </si>
+  <si>
+    <t>8,6  </t>
+  </si>
+  <si>
+    <t>10,2  </t>
+  </si>
+  <si>
+    <t>5,6  </t>
+  </si>
+  <si>
+    <t>6,7  </t>
+  </si>
+  <si>
+    <t>8,5  </t>
+  </si>
+  <si>
+    <t>8,1  </t>
+  </si>
+  <si>
+    <t>12,2  </t>
+  </si>
+  <si>
+    <t>5,3  </t>
+  </si>
+  <si>
+    <t>7,0  </t>
+  </si>
+  <si>
+    <t>8,0  </t>
+  </si>
+  <si>
+    <t>7,3  </t>
+  </si>
+  <si>
+    <t>6,1  </t>
+  </si>
+  <si>
+    <t>6,2  </t>
+  </si>
+  <si>
+    <t>10,0  </t>
+  </si>
+  <si>
+    <t>8,8  </t>
+  </si>
+  <si>
+    <t>5,1  </t>
+  </si>
+  <si>
+    <t>3,8 </t>
+  </si>
+  <si>
+    <t>Cit/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,8 +738,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +933,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1131,7 +1333,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1197,6 +1399,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1540,24 +1764,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection sqref="A1:H1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="615" activePane="bottomLeft"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
@@ -1571,19 +1797,25 @@
         <v>30</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1593,23 +1825,29 @@
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="41">
         <v>0.188</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="41">
+        <v>0.152</v>
+      </c>
+      <c r="F2" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1617,23 +1855,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="3">
+      <c r="D3" s="42">
         <v>0.314</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="42">
+        <v>0.998</v>
+      </c>
+      <c r="F3" s="45">
+        <v>5.9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1643,23 +1887,29 @@
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="42">
         <v>0.186</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="42">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F4" s="45">
+        <v>7.2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1669,23 +1919,29 @@
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="42">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="42">
+        <v>0.123</v>
+      </c>
+      <c r="F5" s="45">
+        <v>7.9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1695,23 +1951,29 @@
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="42">
         <v>0.13700000000000001</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="42">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F6" s="45">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1721,23 +1983,29 @@
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="42">
         <v>0.22</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="42">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F7" s="45">
+        <v>7.8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1747,21 +2015,27 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="42">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="17" t="s">
+      <c r="E8" s="42">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F8" s="45">
+        <v>6.3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1771,23 +2045,29 @@
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="42">
         <v>0.38700000000000001</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="42">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F9" s="45">
+        <v>8.6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -1797,23 +2077,29 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="42">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="E10" s="42">
+        <v>0.184</v>
+      </c>
+      <c r="F10" s="45">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="J10" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -1823,23 +2109,29 @@
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="42">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F11" s="45">
+        <v>5.6</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -1849,23 +2141,29 @@
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="42">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E12" s="42">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F12" s="45">
+        <v>6.7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -1875,23 +2173,29 @@
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="42">
         <v>0.191</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="42">
+        <v>0.115</v>
+      </c>
+      <c r="F13" s="45">
+        <v>7.2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="J13" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -1901,23 +2205,29 @@
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="42">
         <v>0.15</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="42">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F14" s="45">
+        <v>8.5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="J14" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -1927,23 +2237,29 @@
       <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="42">
         <v>0.18</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="42">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F15" s="45">
+        <v>5.6</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="J15" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -1953,21 +2269,27 @@
       <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F16" s="45">
+        <v>8.1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -1977,21 +2299,27 @@
       <c r="C17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F17" s="45">
+        <v>12.2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="J17" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -2001,23 +2329,29 @@
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="42">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="42">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F18" s="45">
+        <v>5.3</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -2027,23 +2361,29 @@
       <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="42">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="42">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F19" s="45">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="J19" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -2053,23 +2393,29 @@
       <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="42">
         <v>0.23</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E20" s="42">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F20" s="45">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="J20" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -2079,23 +2425,29 @@
       <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="42">
         <v>0.125</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="42">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F21" s="45">
+        <v>7.3</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2105,23 +2457,29 @@
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="42">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="42">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F22" s="45">
+        <v>5.6</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -2131,23 +2489,29 @@
       <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="42">
         <v>0.308</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="42">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F23" s="45">
+        <v>5.9</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="J23" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -2157,23 +2521,29 @@
       <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="42">
         <v>0.27900000000000003</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="42">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F24" s="45">
+        <v>6.1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="J24" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2183,23 +2553,29 @@
       <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="42">
         <v>0.151</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="42">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F25" s="45">
+        <v>8.6</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="J25" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -2209,23 +2585,29 @@
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="42">
         <v>0.317</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="42">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="F26" s="45">
+        <v>6.2</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="J26" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -2235,23 +2617,29 @@
       <c r="C27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="42">
         <v>0.14899999999999999</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="42">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F27" s="45">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="J27" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -2261,23 +2649,29 @@
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="42">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="E28" s="42">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F28" s="45">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="J28" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -2287,23 +2681,29 @@
       <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="42">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="F29" s="45">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="J29" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -2311,57 +2711,63 @@
         <v>26</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="9">
+      <c r="D30" s="43">
         <v>0.186</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="E30" s="43">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F30" s="46">
+        <v>3.8</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="J30" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A2:J39">
-    <sortCondition ref="B9"/>
+  <sortState ref="A2:J30">
+    <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="http://www.avtprom.ru/"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3" display="http://vestnik.tu-bryansk.ru/"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H7" r:id="rId5"/>
-    <hyperlink ref="H8" r:id="rId6"/>
-    <hyperlink ref="H9" r:id="rId7" display="http://www.vkit.ru/"/>
-    <hyperlink ref="H10" r:id="rId8" display="http://vestnikmgsu.ru/"/>
-    <hyperlink ref="H11" r:id="rId9" display="http://vestnik.ngiei.ru/"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11" display="http://www.vestnik.sibsau.ru/"/>
-    <hyperlink ref="H14" r:id="rId12"/>
-    <hyperlink ref="H15" r:id="rId13" display="http://www.etn.sc-site.ru/"/>
-    <hyperlink ref="H16" r:id="rId14"/>
-    <hyperlink ref="H17" r:id="rId15"/>
-    <hyperlink ref="H18" r:id="rId16"/>
-    <hyperlink ref="H19" r:id="rId17"/>
-    <hyperlink ref="H20" r:id="rId18" display="http://izv-tn.tti.sfedu.ru/"/>
-    <hyperlink ref="H23" r:id="rId19" location="bio" display="http://www.polytechnics.ru/magazin/index.html - bio"/>
-    <hyperlink ref="H27" r:id="rId20" display="http://pma-ntp.ru/"/>
-    <hyperlink ref="H28" r:id="rId21"/>
-    <hyperlink ref="H29" r:id="rId22"/>
-    <hyperlink ref="H5" r:id="rId23"/>
-    <hyperlink ref="H21" r:id="rId24"/>
-    <hyperlink ref="H22" r:id="rId25" display="http://sfipi.ru/"/>
-    <hyperlink ref="H25" r:id="rId26" display="http://vestnik.omgtu.ru/"/>
-    <hyperlink ref="H30" r:id="rId27"/>
-    <hyperlink ref="H24" r:id="rId28" display="http://globaljournals.ru/"/>
-    <hyperlink ref="H26" r:id="rId29" display="http://moofrnk.com/"/>
+    <hyperlink ref="J2" r:id="rId1" display="http://www.avtprom.ru/"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3" display="http://vestnik.tu-bryansk.ru/"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7" display="http://www.vkit.ru/"/>
+    <hyperlink ref="J10" r:id="rId8" display="http://vestnikmgsu.ru/"/>
+    <hyperlink ref="J11" r:id="rId9" display="http://vestnik.ngiei.ru/"/>
+    <hyperlink ref="J13" r:id="rId10"/>
+    <hyperlink ref="J12" r:id="rId11" display="http://www.vestnik.sibsau.ru/"/>
+    <hyperlink ref="J14" r:id="rId12"/>
+    <hyperlink ref="J15" r:id="rId13" display="http://www.etn.sc-site.ru/"/>
+    <hyperlink ref="J16" r:id="rId14"/>
+    <hyperlink ref="J17" r:id="rId15"/>
+    <hyperlink ref="J18" r:id="rId16"/>
+    <hyperlink ref="J19" r:id="rId17"/>
+    <hyperlink ref="J20" r:id="rId18" display="http://izv-tn.tti.sfedu.ru/"/>
+    <hyperlink ref="J23" r:id="rId19" location="bio" display="http://www.polytechnics.ru/magazin/index.html - bio"/>
+    <hyperlink ref="J27" r:id="rId20" display="http://pma-ntp.ru/"/>
+    <hyperlink ref="J28" r:id="rId21"/>
+    <hyperlink ref="J29" r:id="rId22"/>
+    <hyperlink ref="J5" r:id="rId23"/>
+    <hyperlink ref="J21" r:id="rId24"/>
+    <hyperlink ref="J22" r:id="rId25" display="http://sfipi.ru/"/>
+    <hyperlink ref="J25" r:id="rId26" display="http://vestnik.omgtu.ru/"/>
+    <hyperlink ref="J30" r:id="rId27"/>
+    <hyperlink ref="J24" r:id="rId28" display="http://globaljournals.ru/"/>
+    <hyperlink ref="J26" r:id="rId29" display="http://moofrnk.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
@@ -2372,7 +2778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="C148" sqref="C1:C1048576"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
@@ -2647,4 +3053,408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C1:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="73" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="39"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://elibrary.ru/title_profile.asp?id=8360"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://elibrary.ru/title_profile.asp?id=7647"/>
+    <hyperlink ref="B3" r:id="rId3" display="http://elibrary.ru/title_profile.asp?id=25674"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://elibrary.ru/title_profile.asp?id=9460"/>
+    <hyperlink ref="B5" r:id="rId5" display="http://elibrary.ru/title_profile.asp?id=8483"/>
+    <hyperlink ref="B6" r:id="rId6" display="http://elibrary.ru/title_profile.asp?id=8486"/>
+    <hyperlink ref="B7" r:id="rId7" display="http://elibrary.ru/title_profile.asp?id=7302"/>
+    <hyperlink ref="B8" r:id="rId8" display="http://elibrary.ru/title_profile.asp?id=10023"/>
+    <hyperlink ref="B9" r:id="rId9" display="http://elibrary.ru/title_profile.asp?id=11965"/>
+    <hyperlink ref="B10" r:id="rId10" display="http://elibrary.ru/title_profile.asp?id=33386"/>
+    <hyperlink ref="B11" r:id="rId11" display="http://elibrary.ru/title_profile.asp?id=9569"/>
+    <hyperlink ref="B12" r:id="rId12" display="http://elibrary.ru/title_profile.asp?id=8564"/>
+    <hyperlink ref="B13" r:id="rId13" display="http://elibrary.ru/title_profile.asp?id=25729"/>
+    <hyperlink ref="B14" r:id="rId14" display="http://elibrary.ru/title_profile.asp?id=9779"/>
+    <hyperlink ref="B15" r:id="rId15" display="http://elibrary.ru/title_profile.asp?id=9582"/>
+    <hyperlink ref="B16" r:id="rId16" display="http://elibrary.ru/title_profile.asp?id=6162"/>
+    <hyperlink ref="B17" r:id="rId17" display="http://elibrary.ru/title_profile.asp?id=25782"/>
+    <hyperlink ref="B18" r:id="rId18" display="http://elibrary.ru/title_profile.asp?id=32089"/>
+    <hyperlink ref="B19" r:id="rId19" display="http://elibrary.ru/title_profile.asp?id=26690"/>
+    <hyperlink ref="B20" r:id="rId20" display="http://elibrary.ru/title_profile.asp?id=8745"/>
+    <hyperlink ref="B21" r:id="rId21" display="http://elibrary.ru/title_profile.asp?id=32480"/>
+    <hyperlink ref="B22" r:id="rId22" display="http://elibrary.ru/title_profile.asp?id=8846"/>
+    <hyperlink ref="B23" r:id="rId23" display="http://elibrary.ru/title_profile.asp?id=32230"/>
+    <hyperlink ref="B24" r:id="rId24" display="http://elibrary.ru/title_profile.asp?id=9601"/>
+    <hyperlink ref="B25" r:id="rId25" display="http://elibrary.ru/title_profile.asp?id=28981"/>
+    <hyperlink ref="B26" r:id="rId26" display="http://elibrary.ru/title_profile.asp?id=7307"/>
+    <hyperlink ref="B27" r:id="rId27" display="http://elibrary.ru/title_profile.asp?id=28235"/>
+    <hyperlink ref="B28" r:id="rId28" display="http://elibrary.ru/title_profile.asp?id=25218"/>
+    <hyperlink ref="B29" r:id="rId29" display="http://elibrary.ru/title_profile.asp?id=9160"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+</worksheet>
 </file>
--- a/Exam/journals.xlsx
+++ b/Exam/journals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24780" windowHeight="12150"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="24780" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruJ" sheetId="1" r:id="rId1"/>
@@ -940,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1287,6 +1287,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1333,7 +1342,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1421,6 +1430,10 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1764,18 +1777,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -2769,27 +2785,37 @@
     <hyperlink ref="J24" r:id="rId28" display="http://globaljournals.ru/"/>
     <hyperlink ref="J26" r:id="rId29" display="http://moofrnk.com/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
-      <selection activeCell="C148" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection activeCell="G148" sqref="G1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>39</v>
       </c>
@@ -2809,7 +2835,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2829,7 +2855,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2848,8 +2874,13 @@
       <c r="F3" s="30">
         <v>2.952</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2868,8 +2899,13 @@
       <c r="F4" s="30">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2888,8 +2924,13 @@
       <c r="F5" s="30">
         <v>2.2370000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -2908,8 +2949,10 @@
       <c r="F6" s="30">
         <v>2.5950000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="48"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -2929,7 +2972,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -2948,8 +2991,13 @@
       <c r="F8" s="30">
         <v>2.746</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -2969,7 +3017,7 @@
         <v>1.4450000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -2989,7 +3037,7 @@
         <v>1.397</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3008,8 +3056,13 @@
       <c r="F11" s="30">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3023,7 +3076,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3043,7 +3096,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E14" s="24"/>
     </row>
   </sheetData>
@@ -3051,7 +3104,7 @@
     <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Exam/journals.xlsx
+++ b/Exam/journals.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="ruJ" sheetId="1" r:id="rId1"/>
     <sheet name="intJ" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="126">
   <si>
     <t>Журнал</t>
   </si>
@@ -369,12 +368,6 @@
     <t>0956-5515</t>
   </si>
   <si>
-    <t>Journal of Mathematical Modelling and Algorithms in Operations Research</t>
-  </si>
-  <si>
-    <t>2214-2487</t>
-  </si>
-  <si>
     <t>SNIP</t>
   </si>
   <si>
@@ -384,181 +377,22 @@
     <t>SJR</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Вестник Сибирского государственного аэрокосмического университета им. академика М.Ф. Решетнева</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>21.</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>Вестник Уфимского государственного авиационного технического университета</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Вестник Южно-Уральского государственного университета. Серия: Компьютерные технологии, управление, радиоэлектроника</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>26.</t>
-  </si>
-  <si>
-    <t>Международное научное издание Современные фундаментальные и прикладные исследования</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
     <t>SC. IDX</t>
   </si>
   <si>
-    <t>3,3  </t>
-  </si>
-  <si>
-    <t>5,9  </t>
-  </si>
-  <si>
-    <t>7,2  </t>
-  </si>
-  <si>
-    <t>7,9  </t>
-  </si>
-  <si>
-    <t>8,3  </t>
-  </si>
-  <si>
-    <t>7,8  </t>
-  </si>
-  <si>
-    <t>6,3  </t>
-  </si>
-  <si>
-    <t>8,6  </t>
-  </si>
-  <si>
-    <t>10,2  </t>
-  </si>
-  <si>
-    <t>5,6  </t>
-  </si>
-  <si>
-    <t>6,7  </t>
-  </si>
-  <si>
-    <t>8,5  </t>
-  </si>
-  <si>
-    <t>8,1  </t>
-  </si>
-  <si>
-    <t>12,2  </t>
-  </si>
-  <si>
-    <t>5,3  </t>
-  </si>
-  <si>
-    <t>7,0  </t>
-  </si>
-  <si>
-    <t>8,0  </t>
-  </si>
-  <si>
-    <t>7,3  </t>
-  </si>
-  <si>
-    <t>6,1  </t>
-  </si>
-  <si>
-    <t>6,2  </t>
-  </si>
-  <si>
-    <t>10,0  </t>
-  </si>
-  <si>
-    <t>8,8  </t>
-  </si>
-  <si>
-    <t>5,1  </t>
-  </si>
-  <si>
-    <t>3,8 </t>
-  </si>
-  <si>
     <t>Cit/A</t>
+  </si>
+  <si>
+    <t>International Journal of Simulation Modelling</t>
+  </si>
+  <si>
+    <t>Journal of Materials Processing Technology</t>
+  </si>
+  <si>
+    <t>1726-4529</t>
+  </si>
+  <si>
+    <t>9240-136</t>
   </si>
 </sst>
 </file>
@@ -569,7 +403,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,22 +572,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,12 +751,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1342,7 +1156,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1389,7 +1203,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1404,26 +1217,8 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1813,10 +1608,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>30</v>
@@ -1841,13 +1636,13 @@
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="32">
         <v>0.188</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="32">
         <v>0.152</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="35">
         <v>3.3</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1871,13 +1666,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="42">
+      <c r="D3" s="33">
         <v>0.314</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="33">
         <v>0.998</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="36">
         <v>5.9</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1903,13 +1698,13 @@
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="33">
         <v>0.186</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="33">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="36">
         <v>7.2</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1935,13 +1730,13 @@
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="33">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="33">
         <v>0.123</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="36">
         <v>7.9</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1967,13 +1762,13 @@
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="33">
         <v>0.13700000000000001</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="33">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="36">
         <v>8.3000000000000007</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1999,13 +1794,13 @@
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="33">
         <v>0.22</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="33">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="36">
         <v>7.8</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -2031,13 +1826,13 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="33">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="33">
         <v>6.2E-2</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="36">
         <v>6.3</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2061,13 +1856,13 @@
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="33">
         <v>0.38700000000000001</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="33">
         <v>0.79400000000000004</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="36">
         <v>8.6</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -2093,13 +1888,13 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="33">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="33">
         <v>0.184</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="36">
         <v>10.199999999999999</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2125,13 +1920,13 @@
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="36">
         <v>5.6</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -2157,13 +1952,13 @@
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="33">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="33">
         <v>0.17899999999999999</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="36">
         <v>6.7</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2189,13 +1984,13 @@
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="33">
         <v>0.191</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="33">
         <v>0.115</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="36">
         <v>7.2</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -2221,13 +2016,13 @@
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="33">
         <v>0.15</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="33">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="36">
         <v>8.5</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -2253,13 +2048,13 @@
       <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="33">
         <v>0.18</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="33">
         <v>0.29399999999999998</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="36">
         <v>5.6</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2285,11 +2080,11 @@
       <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="36">
         <v>8.1</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2315,11 +2110,11 @@
       <c r="C17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="36">
         <v>12.2</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -2345,13 +2140,13 @@
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="33">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="36">
         <v>5.3</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2377,13 +2172,13 @@
       <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="33">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="33">
         <v>0.46600000000000003</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="36">
         <v>7</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2409,13 +2204,13 @@
       <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="33">
         <v>0.23</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="33">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="36">
         <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2441,13 +2236,13 @@
       <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="33">
         <v>0.125</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="33">
         <v>0.27300000000000002</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="36">
         <v>7.3</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2473,13 +2268,13 @@
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="33">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="33">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="36">
         <v>5.6</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2505,13 +2300,13 @@
       <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="33">
         <v>0.308</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="33">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="36">
         <v>5.9</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -2537,13 +2332,13 @@
       <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="33">
         <v>0.27900000000000003</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="33">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="36">
         <v>6.1</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -2569,13 +2364,13 @@
       <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="33">
         <v>0.151</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="33">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="36">
         <v>8.6</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -2601,13 +2396,13 @@
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="33">
         <v>0.317</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="33">
         <v>0.32600000000000001</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="36">
         <v>6.2</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -2633,13 +2428,13 @@
       <c r="C27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="33">
         <v>0.14899999999999999</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="33">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="36">
         <v>10</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -2665,13 +2460,13 @@
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="33">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="33">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="36">
         <v>8.8000000000000007</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -2697,13 +2492,13 @@
       <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="33">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="33">
         <v>0.93</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="36">
         <v>5.0999999999999996</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -2727,13 +2522,13 @@
         <v>26</v>
       </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="43">
+      <c r="D30" s="34">
         <v>0.186</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="34">
         <v>0.64500000000000002</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="37">
         <v>3.8</v>
       </c>
       <c r="G30" s="20" t="s">
@@ -2795,19 +2590,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="G148" sqref="G1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
@@ -2816,23 +2613,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2845,13 +2642,13 @@
       <c r="C2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>1.123</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>1.18</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>1.1859999999999999</v>
       </c>
     </row>
@@ -2865,20 +2662,20 @@
       <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>2.0230000000000001</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>3.67</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>2.952</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -2890,20 +2687,20 @@
       <c r="C4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>1.8460000000000001</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <v>2.7360000000000002</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>1.63</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -2915,20 +2712,20 @@
       <c r="C5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>1.95</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>2.6890000000000001</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>2.2370000000000001</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -2940,17 +2737,17 @@
       <c r="C6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>2.2949999999999999</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>3.1080000000000001</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>2.5950000000000002</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="H6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -2962,13 +2759,13 @@
       <c r="C7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>1.1759999999999999</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>1.59</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>0.91500000000000004</v>
       </c>
     </row>
@@ -2982,20 +2779,20 @@
       <c r="C8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>3.3149999999999999</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>4.3330000000000002</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>2.746</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -3007,13 +2804,13 @@
       <c r="C9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>1.2430000000000001</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>2.0259999999999998</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>1.4450000000000001</v>
       </c>
     </row>
@@ -3022,19 +2819,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="29">
-        <v>1.643</v>
-      </c>
-      <c r="E10" s="29">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="F10" s="30">
-        <v>1.397</v>
+        <v>124</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2.198</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3042,472 +2839,93 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="29">
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="E11" s="29">
-        <v>2.758</v>
-      </c>
-      <c r="F11" s="30">
-        <v>1.19</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+        <v>116</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1.643</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1.397</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+        <v>100</v>
+      </c>
+      <c r="D12" s="28">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2.758</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1.464</v>
+      </c>
+      <c r="E13" s="28">
+        <f>2.66</f>
+        <v>2.66</v>
+      </c>
+      <c r="F13" s="29">
+        <v>2.367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D14" s="30">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E14" s="30">
         <v>0.182</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F14" s="31">
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="24"/>
-    </row>
+    <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A2:C13">
+  <sortState ref="A2:F14">
     <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C1:C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="73" style="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="39"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="39"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="39"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="39"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="39"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="39"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://elibrary.ru/title_profile.asp?id=8360"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://elibrary.ru/title_profile.asp?id=7647"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://elibrary.ru/title_profile.asp?id=25674"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://elibrary.ru/title_profile.asp?id=9460"/>
-    <hyperlink ref="B5" r:id="rId5" display="http://elibrary.ru/title_profile.asp?id=8483"/>
-    <hyperlink ref="B6" r:id="rId6" display="http://elibrary.ru/title_profile.asp?id=8486"/>
-    <hyperlink ref="B7" r:id="rId7" display="http://elibrary.ru/title_profile.asp?id=7302"/>
-    <hyperlink ref="B8" r:id="rId8" display="http://elibrary.ru/title_profile.asp?id=10023"/>
-    <hyperlink ref="B9" r:id="rId9" display="http://elibrary.ru/title_profile.asp?id=11965"/>
-    <hyperlink ref="B10" r:id="rId10" display="http://elibrary.ru/title_profile.asp?id=33386"/>
-    <hyperlink ref="B11" r:id="rId11" display="http://elibrary.ru/title_profile.asp?id=9569"/>
-    <hyperlink ref="B12" r:id="rId12" display="http://elibrary.ru/title_profile.asp?id=8564"/>
-    <hyperlink ref="B13" r:id="rId13" display="http://elibrary.ru/title_profile.asp?id=25729"/>
-    <hyperlink ref="B14" r:id="rId14" display="http://elibrary.ru/title_profile.asp?id=9779"/>
-    <hyperlink ref="B15" r:id="rId15" display="http://elibrary.ru/title_profile.asp?id=9582"/>
-    <hyperlink ref="B16" r:id="rId16" display="http://elibrary.ru/title_profile.asp?id=6162"/>
-    <hyperlink ref="B17" r:id="rId17" display="http://elibrary.ru/title_profile.asp?id=25782"/>
-    <hyperlink ref="B18" r:id="rId18" display="http://elibrary.ru/title_profile.asp?id=32089"/>
-    <hyperlink ref="B19" r:id="rId19" display="http://elibrary.ru/title_profile.asp?id=26690"/>
-    <hyperlink ref="B20" r:id="rId20" display="http://elibrary.ru/title_profile.asp?id=8745"/>
-    <hyperlink ref="B21" r:id="rId21" display="http://elibrary.ru/title_profile.asp?id=32480"/>
-    <hyperlink ref="B22" r:id="rId22" display="http://elibrary.ru/title_profile.asp?id=8846"/>
-    <hyperlink ref="B23" r:id="rId23" display="http://elibrary.ru/title_profile.asp?id=32230"/>
-    <hyperlink ref="B24" r:id="rId24" display="http://elibrary.ru/title_profile.asp?id=9601"/>
-    <hyperlink ref="B25" r:id="rId25" display="http://elibrary.ru/title_profile.asp?id=28981"/>
-    <hyperlink ref="B26" r:id="rId26" display="http://elibrary.ru/title_profile.asp?id=7307"/>
-    <hyperlink ref="B27" r:id="rId27" display="http://elibrary.ru/title_profile.asp?id=28235"/>
-    <hyperlink ref="B28" r:id="rId28" display="http://elibrary.ru/title_profile.asp?id=25218"/>
-    <hyperlink ref="B29" r:id="rId29" display="http://elibrary.ru/title_profile.asp?id=9160"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>